--- a/biology/Botanique/Simarouba/Simarouba.xlsx
+++ b/biology/Botanique/Simarouba/Simarouba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simarouba est un genre d'arbres originaires des forêts néotropicales[2], appartenant à la famille des Simaroubaceae (qui lui doit son nom), et dont l'espèce type est Simarouba amara Aubl.[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simarouba est un genre d'arbres originaires des forêts néotropicales, appartenant à la famille des Simaroubaceae (qui lui doit son nom), et dont l'espèce type est Simarouba amara Aubl..
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Espèces valides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
 Simarouba amara Aubl.
 Simarouba tulae Urb.
 Simarouba versicolor A. St.-Hil.
@@ -545,9 +559,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « SIMAROUBA. (Tabula 331 &amp; 332.)
 MASCULI FLORES.
 CAL. Perianthium monophyllum, quinquedentatum ; denriculis ſubrotundis, acutis.
